--- a/src/lib/server/reports/templates/TEMPLATE_A1-InTheProgram.xlsx
+++ b/src/lib/server/reports/templates/TEMPLATE_A1-InTheProgram.xlsx
@@ -646,9 +646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -662,7 +662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9523800" y="266760"/>
-          <a:ext cx="1351080" cy="788400"/>
+          <a:ext cx="1350720" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,9 +684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279000</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -700,7 +700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3589560" y="95400"/>
-          <a:ext cx="1140840" cy="1140840"/>
+          <a:ext cx="1140120" cy="1140120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N43" activeCellId="0" sqref="N43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1531,16 +1531,46 @@
         <v>30</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
+      <c r="E31" s="34" t="n">
+        <f aca="false">SUM(E21,E23,E25,E27,E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="34" t="n">
+        <f aca="false">SUM(F21,F23,F25,F27,F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="34" t="n">
+        <f aca="false">SUM(G21,G23,G25,G27,G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="34" t="n">
+        <f aca="false">SUM(H21,H23,H25,H27,H29)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="34" t="n">
+        <f aca="false">SUM(I21,I23,I25,I27,I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="34" t="n">
+        <f aca="false">SUM(J21,J23,J25,J27,J29)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="34" t="n">
+        <f aca="false">SUM(K21,K23,K25,K27,K29)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="34" t="n">
+        <f aca="false">SUM(L21,L23,L25,L27,L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="34" t="n">
+        <f aca="false">SUM(M21,M23,M25,M27,M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="34" t="n">
+        <f aca="false">SUM(N21,N23,N25,N27,N29)</f>
+        <v>0</v>
+      </c>
       <c r="O31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,16 +1597,46 @@
         <v>31</v>
       </c>
       <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
+      <c r="E33" s="36" t="n">
+        <f aca="false">E31-E35</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="36" t="n">
+        <f aca="false">F31-F35</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="36" t="n">
+        <f aca="false">G31-G35</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="36" t="n">
+        <f aca="false">H31-H35</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="36" t="n">
+        <f aca="false">I31-I35</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="36" t="n">
+        <f aca="false">J31-J35</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="36" t="n">
+        <f aca="false">K31-K35</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="36" t="n">
+        <f aca="false">L31-L35</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="36" t="n">
+        <f aca="false">M31-M35</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="36" t="n">
+        <f aca="false">N31-N35</f>
+        <v>0</v>
+      </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,10 +1648,10 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="2"/>
@@ -1603,16 +1663,46 @@
         <v>32</v>
       </c>
       <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
+      <c r="E35" s="37" t="n">
+        <f aca="false">SUM(E22,E24,E26,E28,E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="37" t="n">
+        <f aca="false">SUM(F22,F24,F26,F28,F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="37" t="n">
+        <f aca="false">SUM(G22,G24,G26,G28,G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="37" t="n">
+        <f aca="false">SUM(H22,H24,H26,H28,H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="37" t="n">
+        <f aca="false">SUM(I22,I24,I26,I28,I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="n">
+        <f aca="false">SUM(J22,J24,J26,J28,J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="37" t="n">
+        <f aca="false">SUM(K22,K24,K26,K28,K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="37" t="n">
+        <f aca="false">SUM(L22,L24,L26,L28,L30)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="37" t="n">
+        <f aca="false">SUM(M22,M24,M26,M28,M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="37" t="n">
+        <f aca="false">SUM(N22,N24,N26,N28,N30)</f>
+        <v>0</v>
+      </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1641,7 +1731,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="102">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N4"/>
@@ -1716,8 +1806,10 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="C33:D34"/>
@@ -1725,8 +1817,10 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="C35:D36"/>
@@ -1734,8 +1828,10 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="N35:N36"/>
   </mergeCells>

--- a/src/lib/server/reports/templates/TEMPLATE_A1-InTheProgram.xlsx
+++ b/src/lib/server/reports/templates/TEMPLATE_A1-InTheProgram.xlsx
@@ -646,9 +646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>64440</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -662,7 +662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9523800" y="266760"/>
-          <a:ext cx="1350720" cy="787680"/>
+          <a:ext cx="1350360" cy="787320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,9 +684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
+      <xdr:colOff>277920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -700,7 +700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3589560" y="95400"/>
-          <a:ext cx="1140120" cy="1140120"/>
+          <a:ext cx="1139760" cy="1139760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1531,46 +1531,16 @@
         <v>30</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="34" t="n">
-        <f aca="false">SUM(E21,E23,E25,E27,E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="34" t="n">
-        <f aca="false">SUM(F21,F23,F25,F27,F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="34" t="n">
-        <f aca="false">SUM(G21,G23,G25,G27,G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="34" t="n">
-        <f aca="false">SUM(H21,H23,H25,H27,H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="34" t="n">
-        <f aca="false">SUM(I21,I23,I25,I27,I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="34" t="n">
-        <f aca="false">SUM(J21,J23,J25,J27,J29)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="34" t="n">
-        <f aca="false">SUM(K21,K23,K25,K27,K29)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="34" t="n">
-        <f aca="false">SUM(L21,L23,L25,L27,L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="34" t="n">
-        <f aca="false">SUM(M21,M23,M25,M27,M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="34" t="n">
-        <f aca="false">SUM(N21,N23,N25,N27,N29)</f>
-        <v>0</v>
-      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,46 +1567,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="35"/>
-      <c r="E33" s="36" t="n">
-        <f aca="false">E31-E35</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="36" t="n">
-        <f aca="false">F31-F35</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="36" t="n">
-        <f aca="false">G31-G35</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="36" t="n">
-        <f aca="false">H31-H35</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="36" t="n">
-        <f aca="false">I31-I35</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="36" t="n">
-        <f aca="false">J31-J35</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="36" t="n">
-        <f aca="false">K31-K35</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="36" t="n">
-        <f aca="false">L31-L35</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="36" t="n">
-        <f aca="false">M31-M35</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="36" t="n">
-        <f aca="false">N31-N35</f>
-        <v>0</v>
-      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,46 +1603,16 @@
         <v>32</v>
       </c>
       <c r="D35" s="37"/>
-      <c r="E35" s="37" t="n">
-        <f aca="false">SUM(E22,E24,E26,E28,E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="37" t="n">
-        <f aca="false">SUM(F22,F24,F26,F28,F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="37" t="n">
-        <f aca="false">SUM(G22,G24,G26,G28,G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="37" t="n">
-        <f aca="false">SUM(H22,H24,H26,H28,H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="37" t="n">
-        <f aca="false">SUM(I22,I24,I26,I28,I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="37" t="n">
-        <f aca="false">SUM(J22,J24,J26,J28,J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="37" t="n">
-        <f aca="false">SUM(K22,K24,K26,K28,K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="37" t="n">
-        <f aca="false">SUM(L22,L24,L26,L28,L30)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="37" t="n">
-        <f aca="false">SUM(M22,M24,M26,M28,M30)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="37" t="n">
-        <f aca="false">SUM(N22,N24,N26,N28,N30)</f>
-        <v>0</v>
-      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1731,7 +1641,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="96">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N4"/>
@@ -1806,10 +1716,8 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="C33:D34"/>
@@ -1817,10 +1725,8 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="C35:D36"/>
@@ -1828,10 +1734,8 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="N35:N36"/>
   </mergeCells>

--- a/src/lib/server/reports/templates/TEMPLATE_A1-InTheProgram.xlsx
+++ b/src/lib/server/reports/templates/TEMPLATE_A1-InTheProgram.xlsx
@@ -645,10 +645,10 @@
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>905760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -661,8 +661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9523800" y="266760"/>
-          <a:ext cx="1350360" cy="787320"/>
+          <a:off x="12040920" y="266760"/>
+          <a:ext cx="1349640" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,10 +683,10 @@
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>277920</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1167480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,8 +699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3589560" y="95400"/>
-          <a:ext cx="1139760" cy="1139760"/>
+          <a:off x="4091040" y="95400"/>
+          <a:ext cx="1139040" cy="1139040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,16 +896,23 @@
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="17.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
